--- a/templates/planilha_modelo_provas.xlsx
+++ b/templates/planilha_modelo_provas.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F78FD74-0022-4E21-8E03-6ED7637066F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Provas" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Provas"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>disciplina</t>
   </si>
@@ -58,13 +41,38 @@
   </si>
   <si>
     <t>nome_curso</t>
+  </si>
+  <si>
+    <t>internet das coisas</t>
+  </si>
+  <si>
+    <t>jeferson</t>
+  </si>
+  <si>
+    <t>21/11/2025</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>H209</t>
+  </si>
+  <si>
+    <t>sexta</t>
+  </si>
+  <si>
+    <t>noturno</t>
+  </si>
+  <si>
+    <t>engenharia de software</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,12 +81,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,7 +102,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -101,21 +121,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -126,10 +166,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -167,69 +207,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -253,54 +295,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -310,7 +351,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -319,7 +360,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -328,7 +369,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -336,10 +377,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -368,7 +409,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -381,13 +422,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -405,51 +445,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="3"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="K3" s="1"/>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/templates/planilha_modelo_provas.xlsx
+++ b/templates/planilha_modelo_provas.xlsx
@@ -1,20 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29518"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70EF8587-89ED-42B4-A890-34718E6ED2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Provas"/>
+    <sheet name="Provas" sheetId="1" r:id="rId1"/>
+    <sheet name="Lista dias da semana" sheetId="2" r:id="rId2"/>
+    <sheet name="Lista turnos" sheetId="3" r:id="rId3"/>
+    <sheet name="Lista ciclos" sheetId="5" r:id="rId4"/>
+    <sheet name="Lista cursos" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>disciplina</t>
   </si>
@@ -43,36 +64,122 @@
     <t>nome_curso</t>
   </si>
   <si>
-    <t>internet das coisas</t>
-  </si>
-  <si>
-    <t>jeferson</t>
-  </si>
-  <si>
-    <t>21/11/2025</t>
-  </si>
-  <si>
-    <t>19:30</t>
-  </si>
-  <si>
-    <t>H209</t>
-  </si>
-  <si>
-    <t>sexta</t>
-  </si>
-  <si>
-    <t>noturno</t>
-  </si>
-  <si>
-    <t>engenharia de software</t>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Segunda-feira</t>
+  </si>
+  <si>
+    <t>Terça-feira</t>
+  </si>
+  <si>
+    <t>Quarta-feira</t>
+  </si>
+  <si>
+    <t>Quinta-feira</t>
+  </si>
+  <si>
+    <t>Sexta-feira</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Matutino</t>
+  </si>
+  <si>
+    <t>Vespertino</t>
+  </si>
+  <si>
+    <t>Noturno</t>
+  </si>
+  <si>
+    <t>Ciclo 1</t>
+  </si>
+  <si>
+    <t>Ciclo 2</t>
+  </si>
+  <si>
+    <t>Ciclo 3</t>
+  </si>
+  <si>
+    <t>Administração</t>
+  </si>
+  <si>
+    <t>Agronomia</t>
+  </si>
+  <si>
+    <t>Arquitetura e Urbanismo</t>
+  </si>
+  <si>
+    <t>Biomedicina</t>
+  </si>
+  <si>
+    <t>Ciências Biológicas</t>
+  </si>
+  <si>
+    <t>Ciências Contábeis</t>
+  </si>
+  <si>
+    <t>Comunicação Social: Publicidade e Propaganda</t>
+  </si>
+  <si>
+    <t>Design Gráfico</t>
+  </si>
+  <si>
+    <t>Direito</t>
+  </si>
+  <si>
+    <t>Educação Física</t>
+  </si>
+  <si>
+    <t>Enfermagem</t>
+  </si>
+  <si>
+    <t>Engenharia Civil</t>
+  </si>
+  <si>
+    <t>Engenharia de Software</t>
+  </si>
+  <si>
+    <t>Engenharia Elétrica</t>
+  </si>
+  <si>
+    <t>Engenharia Mecânica</t>
+  </si>
+  <si>
+    <t>Estética e Cosmética</t>
+  </si>
+  <si>
+    <t>Farmácia</t>
+  </si>
+  <si>
+    <t>Fisioterapia</t>
+  </si>
+  <si>
+    <t>Gastronomia</t>
+  </si>
+  <si>
+    <t>Gestão Pública</t>
+  </si>
+  <si>
+    <t>Psicologia</t>
+  </si>
+  <si>
+    <t>Medicina</t>
+  </si>
+  <si>
+    <t>Relações Internacionais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,17 +188,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,14 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -121,44 +216,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7FBFA4D4-FA10-4446-9ED0-CAC3A1A57E1A}" name="Tabela1" displayName="Tabela1" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{7FBFA4D4-FA10-4446-9ED0-CAC3A1A57E1A}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{F1096880-FE2F-4A6E-B284-7A50C136B746}" name="disciplina"/>
+    <tableColumn id="2" xr3:uid="{7E8EC5E4-4A40-43A8-9598-DB3C9B3723CE}" name="professor"/>
+    <tableColumn id="3" xr3:uid="{A3A52271-FD83-4F90-A897-42A0778E2B13}" name="data" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0E564D45-3ABC-4E21-BC3A-9E336D993487}" name="horario" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{D70A5F52-A27D-4A8F-BF11-9FA594F47343}" name="sala"/>
+    <tableColumn id="6" xr3:uid="{C556197A-2C44-4017-91CF-F522BD2FA3C0}" name="dia"/>
+    <tableColumn id="7" xr3:uid="{718E3F27-C777-4EB2-8F64-2260EF945B81}" name="turno"/>
+    <tableColumn id="8" xr3:uid="{0334ADA1-B719-4D6D-9D84-28DB94C7FA79}" name="ciclo"/>
+    <tableColumn id="9" xr3:uid="{58B831A7-0D3D-4F9A-9BCC-0505A332359B}" name="nome_curso"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -166,10 +268,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -207,71 +309,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -295,53 +395,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -351,7 +452,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -360,7 +461,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -369,7 +470,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -377,10 +478,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -409,7 +510,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -422,12 +523,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -445,103 +547,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="K3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4537C138-9E54-46AF-9CE7-3E8836387D95}">
+          <x14:formula1>
+            <xm:f>'Lista dias da semana'!$A$1:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{07BA342F-0748-4120-8A8B-76D6D09B85F4}">
+          <x14:formula1>
+            <xm:f>'Lista turnos'!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACF16365-4DC5-4161-B785-2D88B311FC51}">
+          <x14:formula1>
+            <xm:f>'Lista cursos'!$A$1:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{742D291B-FB37-4449-A5C5-5B0E5655B8D6}">
+          <x14:formula1>
+            <xm:f>'Lista ciclos'!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2664A751-0BCC-4702-BE4C-56BF6631CD7A}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85907939-82D7-4CDB-8BC6-0E7C4E67FD8E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="5"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D0F286-9D6D-4164-9B8D-5D645647282D}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6921F9C3-F428-454B-8027-E2179C0555D0}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/planilha_modelo_provas.xlsx
+++ b/templates/planilha_modelo_provas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70EF8587-89ED-42B4-A890-34718E6ED2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE308FDF-9C19-4D49-9D05-94636EE8CF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Provas" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>disciplina</t>
-  </si>
-  <si>
-    <t>professor</t>
   </si>
   <si>
     <t>data</t>
@@ -177,7 +174,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -220,14 +217,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="165" formatCode="h:mm;@"/>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -246,11 +243,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7FBFA4D4-FA10-4446-9ED0-CAC3A1A57E1A}" name="Tabela1" displayName="Tabela1" ref="A1:I2" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{7FBFA4D4-FA10-4446-9ED0-CAC3A1A57E1A}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7FBFA4D4-FA10-4446-9ED0-CAC3A1A57E1A}" name="Tabela1" displayName="Tabela1" ref="A1:H2" totalsRowShown="0">
+  <autoFilter ref="A1:H2" xr:uid="{7FBFA4D4-FA10-4446-9ED0-CAC3A1A57E1A}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F1096880-FE2F-4A6E-B284-7A50C136B746}" name="disciplina"/>
-    <tableColumn id="2" xr3:uid="{7E8EC5E4-4A40-43A8-9598-DB3C9B3723CE}" name="professor"/>
     <tableColumn id="3" xr3:uid="{A3A52271-FD83-4F90-A897-42A0778E2B13}" name="data" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{0E564D45-3ABC-4E21-BC3A-9E336D993487}" name="horario" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{D70A5F52-A27D-4A8F-BF11-9FA594F47343}" name="sala"/>
@@ -551,7 +547,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -566,13 +562,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -587,9 +583,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="K3" s="1"/>
@@ -606,25 +604,25 @@
           <x14:formula1>
             <xm:f>'Lista dias da semana'!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F3:F1048576 E1:E2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{07BA342F-0748-4120-8A8B-76D6D09B85F4}">
           <x14:formula1>
             <xm:f>'Lista turnos'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G3:G1048576 F1:F2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACF16365-4DC5-4161-B785-2D88B311FC51}">
           <x14:formula1>
             <xm:f>'Lista cursos'!$A$1:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I1048576</xm:sqref>
+          <xm:sqref>I3:I1048576 H1:H2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{742D291B-FB37-4449-A5C5-5B0E5655B8D6}">
           <x14:formula1>
             <xm:f>'Lista ciclos'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
+          <xm:sqref>H3:H1048576 G1:G2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -645,37 +643,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -696,17 +694,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -729,17 +727,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -760,117 +758,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
